--- a/2022/SAMSUNG/MAY/02.05.2022/SAMSUNG Bank Statement May-2022.xlsx
+++ b/2022/SAMSUNG/MAY/02.05.2022/SAMSUNG Bank Statement May-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\SAMSUNG\MAY\02.05.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\SAMSUNG\MAY\02.05.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="332">
   <si>
     <t>Date</t>
   </si>
@@ -1043,13 +1043,19 @@
     <t>02.05.2022</t>
   </si>
   <si>
-    <t>Date:02.05.2022</t>
-  </si>
-  <si>
     <t>Sohel Store</t>
   </si>
   <si>
     <t>B=Sohel Store</t>
+  </si>
+  <si>
+    <t>05.05.2022</t>
+  </si>
+  <si>
+    <t>Date:05.05.2022</t>
+  </si>
+  <si>
+    <t>Realme (+)</t>
   </si>
 </sst>
 </file>
@@ -3546,6 +3552,18 @@
     <xf numFmtId="0" fontId="33" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3687,6 +3705,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="37" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="37" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3696,10 +3738,16 @@
     <xf numFmtId="0" fontId="11" fillId="35" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3711,21 +3759,9 @@
     <xf numFmtId="0" fontId="41" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="37" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="37" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="45" fillId="41" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3741,44 +3777,14 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4237,33 +4243,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="401"/>
-      <c r="B1" s="401"/>
-      <c r="C1" s="401"/>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
+      <c r="A1" s="405"/>
+      <c r="B1" s="405"/>
+      <c r="C1" s="405"/>
+      <c r="D1" s="405"/>
+      <c r="E1" s="405"/>
+      <c r="F1" s="405"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="402"/>
-      <c r="B2" s="399" t="s">
+      <c r="A2" s="406"/>
+      <c r="B2" s="403" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="399"/>
-      <c r="D2" s="399"/>
-      <c r="E2" s="399"/>
+      <c r="C2" s="403"/>
+      <c r="D2" s="403"/>
+      <c r="E2" s="403"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="402"/>
-      <c r="B3" s="400" t="s">
+      <c r="A3" s="406"/>
+      <c r="B3" s="404" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="400"/>
-      <c r="D3" s="400"/>
-      <c r="E3" s="400"/>
+      <c r="C3" s="404"/>
+      <c r="D3" s="404"/>
+      <c r="E3" s="404"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="402"/>
+      <c r="A4" s="406"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4281,7 +4287,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="402"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4299,7 +4305,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="402"/>
+      <c r="A6" s="406"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4311,7 +4317,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="402"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
@@ -4330,7 +4336,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="402"/>
+      <c r="A8" s="406"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -4349,7 +4355,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="402"/>
+      <c r="A9" s="406"/>
       <c r="B9" s="26" t="s">
         <v>43</v>
       </c>
@@ -4368,7 +4374,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="402"/>
+      <c r="A10" s="406"/>
       <c r="B10" s="26" t="s">
         <v>44</v>
       </c>
@@ -4387,7 +4393,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="402"/>
+      <c r="A11" s="406"/>
       <c r="B11" s="26" t="s">
         <v>45</v>
       </c>
@@ -4406,7 +4412,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="402"/>
+      <c r="A12" s="406"/>
       <c r="B12" s="26" t="s">
         <v>46</v>
       </c>
@@ -4425,7 +4431,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="402"/>
+      <c r="A13" s="406"/>
       <c r="B13" s="26" t="s">
         <v>47</v>
       </c>
@@ -4444,7 +4450,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="402"/>
+      <c r="A14" s="406"/>
       <c r="B14" s="26" t="s">
         <v>48</v>
       </c>
@@ -4463,7 +4469,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="402"/>
+      <c r="A15" s="406"/>
       <c r="B15" s="26" t="s">
         <v>49</v>
       </c>
@@ -4482,7 +4488,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="402"/>
+      <c r="A16" s="406"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4495,7 +4501,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="402"/>
+      <c r="A17" s="406"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4508,7 +4514,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="402"/>
+      <c r="A18" s="406"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4521,7 +4527,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="402"/>
+      <c r="A19" s="406"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4534,7 +4540,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="402"/>
+      <c r="A20" s="406"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4547,7 +4553,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="402"/>
+      <c r="A21" s="406"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4560,7 +4566,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="402"/>
+      <c r="A22" s="406"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4573,7 +4579,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="402"/>
+      <c r="A23" s="406"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4586,7 +4592,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="402"/>
+      <c r="A24" s="406"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4599,7 +4605,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="402"/>
+      <c r="A25" s="406"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4612,7 +4618,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="402"/>
+      <c r="A26" s="406"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4625,7 +4631,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="402"/>
+      <c r="A27" s="406"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4638,7 +4644,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="402"/>
+      <c r="A28" s="406"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4651,7 +4657,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="402"/>
+      <c r="A29" s="406"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4664,7 +4670,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="402"/>
+      <c r="A30" s="406"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4677,7 +4683,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="402"/>
+      <c r="A31" s="406"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4690,7 +4696,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="402"/>
+      <c r="A32" s="406"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4703,7 +4709,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="402"/>
+      <c r="A33" s="406"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4716,7 +4722,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="402"/>
+      <c r="A34" s="406"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4729,7 +4735,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="402"/>
+      <c r="A35" s="406"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4742,7 +4748,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="402"/>
+      <c r="A36" s="406"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4755,7 +4761,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="402"/>
+      <c r="A37" s="406"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4768,7 +4774,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="402"/>
+      <c r="A38" s="406"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4781,7 +4787,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="402"/>
+      <c r="A39" s="406"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4794,7 +4800,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="402"/>
+      <c r="A40" s="406"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4807,7 +4813,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="402"/>
+      <c r="A41" s="406"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4820,7 +4826,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="402"/>
+      <c r="A42" s="406"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4833,7 +4839,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="402"/>
+      <c r="A43" s="406"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4846,7 +4852,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="402"/>
+      <c r="A44" s="406"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4859,7 +4865,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="402"/>
+      <c r="A45" s="406"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4872,7 +4878,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="402"/>
+      <c r="A46" s="406"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4885,7 +4891,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="402"/>
+      <c r="A47" s="406"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4898,7 +4904,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="402"/>
+      <c r="A48" s="406"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4911,7 +4917,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="402"/>
+      <c r="A49" s="406"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4924,7 +4930,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="402"/>
+      <c r="A50" s="406"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4937,7 +4943,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="402"/>
+      <c r="A51" s="406"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4950,7 +4956,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="402"/>
+      <c r="A52" s="406"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4963,7 +4969,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="402"/>
+      <c r="A53" s="406"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4976,7 +4982,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="402"/>
+      <c r="A54" s="406"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4989,7 +4995,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="402"/>
+      <c r="A55" s="406"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -5001,7 +5007,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="402"/>
+      <c r="A56" s="406"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -5013,7 +5019,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="402"/>
+      <c r="A57" s="406"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -5025,7 +5031,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="402"/>
+      <c r="A58" s="406"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -5037,7 +5043,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="402"/>
+      <c r="A59" s="406"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -5049,7 +5055,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="402"/>
+      <c r="A60" s="406"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -5061,7 +5067,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="402"/>
+      <c r="A61" s="406"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -5073,7 +5079,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="402"/>
+      <c r="A62" s="406"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -5085,7 +5091,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="402"/>
+      <c r="A63" s="406"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -5097,7 +5103,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="402"/>
+      <c r="A64" s="406"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -5109,7 +5115,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="402"/>
+      <c r="A65" s="406"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -5121,7 +5127,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="402"/>
+      <c r="A66" s="406"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -5133,7 +5139,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="402"/>
+      <c r="A67" s="406"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -5145,7 +5151,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="402"/>
+      <c r="A68" s="406"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -5157,7 +5163,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="402"/>
+      <c r="A69" s="406"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5169,7 +5175,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="402"/>
+      <c r="A70" s="406"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5181,7 +5187,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="402"/>
+      <c r="A71" s="406"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5193,7 +5199,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="402"/>
+      <c r="A72" s="406"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5205,7 +5211,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="402"/>
+      <c r="A73" s="406"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5217,7 +5223,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="402"/>
+      <c r="A74" s="406"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5229,7 +5235,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="402"/>
+      <c r="A75" s="406"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5241,7 +5247,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="402"/>
+      <c r="A76" s="406"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5253,7 +5259,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="402"/>
+      <c r="A77" s="406"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5265,7 +5271,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="402"/>
+      <c r="A78" s="406"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5277,7 +5283,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="402"/>
+      <c r="A79" s="406"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5289,7 +5295,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="402"/>
+      <c r="A80" s="406"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5301,7 +5307,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="402"/>
+      <c r="A81" s="406"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5313,7 +5319,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="402"/>
+      <c r="A82" s="406"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5325,7 +5331,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="402"/>
+      <c r="A83" s="406"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5365,7 +5371,7 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5382,33 +5388,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="401"/>
-      <c r="B1" s="401"/>
-      <c r="C1" s="401"/>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
+      <c r="A1" s="405"/>
+      <c r="B1" s="405"/>
+      <c r="C1" s="405"/>
+      <c r="D1" s="405"/>
+      <c r="E1" s="405"/>
+      <c r="F1" s="405"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="402"/>
-      <c r="B2" s="399" t="s">
+      <c r="A2" s="406"/>
+      <c r="B2" s="403" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="399"/>
-      <c r="D2" s="399"/>
-      <c r="E2" s="399"/>
+      <c r="C2" s="403"/>
+      <c r="D2" s="403"/>
+      <c r="E2" s="403"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="402"/>
-      <c r="B3" s="400" t="s">
+      <c r="A3" s="406"/>
+      <c r="B3" s="404" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="400"/>
-      <c r="D3" s="400"/>
-      <c r="E3" s="400"/>
+      <c r="C3" s="404"/>
+      <c r="D3" s="404"/>
+      <c r="E3" s="404"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="402"/>
+      <c r="A4" s="406"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5426,7 +5432,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="402"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5444,7 +5450,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="402"/>
+      <c r="A6" s="406"/>
       <c r="B6" s="26"/>
       <c r="C6" s="242"/>
       <c r="D6" s="242"/>
@@ -5456,7 +5462,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="402"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="26" t="s">
         <v>322</v>
       </c>
@@ -5476,7 +5482,7 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="402"/>
+      <c r="A8" s="406"/>
       <c r="B8" s="26" t="s">
         <v>326</v>
       </c>
@@ -5492,13 +5498,19 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="402"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="242"/>
-      <c r="D9" s="242"/>
+      <c r="A9" s="406"/>
+      <c r="B9" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" s="242">
+        <v>130000</v>
+      </c>
+      <c r="D9" s="242">
+        <v>220000</v>
+      </c>
       <c r="E9" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5506,13 +5518,13 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="402"/>
+      <c r="A10" s="406"/>
       <c r="B10" s="26"/>
       <c r="C10" s="244"/>
       <c r="D10" s="244"/>
       <c r="E10" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -5520,13 +5532,13 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="402"/>
+      <c r="A11" s="406"/>
       <c r="B11" s="26"/>
       <c r="C11" s="242"/>
       <c r="D11" s="242"/>
       <c r="E11" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -5534,13 +5546,13 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="402"/>
+      <c r="A12" s="406"/>
       <c r="B12" s="26"/>
       <c r="C12" s="242"/>
       <c r="D12" s="242"/>
       <c r="E12" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="2"/>
@@ -5548,13 +5560,13 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="402"/>
+      <c r="A13" s="406"/>
       <c r="B13" s="26"/>
       <c r="C13" s="242"/>
       <c r="D13" s="242"/>
       <c r="E13" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="30"/>
@@ -5562,13 +5574,13 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="402"/>
+      <c r="A14" s="406"/>
       <c r="B14" s="26"/>
       <c r="C14" s="242"/>
       <c r="D14" s="242"/>
       <c r="E14" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="2"/>
@@ -5576,13 +5588,13 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="402"/>
+      <c r="A15" s="406"/>
       <c r="B15" s="26"/>
       <c r="C15" s="242"/>
       <c r="D15" s="242"/>
       <c r="E15" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="11"/>
@@ -5590,13 +5602,13 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="402"/>
+      <c r="A16" s="406"/>
       <c r="B16" s="26"/>
       <c r="C16" s="242"/>
       <c r="D16" s="242"/>
       <c r="E16" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="2"/>
@@ -5604,13 +5616,13 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="402"/>
+      <c r="A17" s="406"/>
       <c r="B17" s="26"/>
       <c r="C17" s="242"/>
       <c r="D17" s="242"/>
       <c r="E17" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="2"/>
@@ -5618,13 +5630,13 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="402"/>
+      <c r="A18" s="406"/>
       <c r="B18" s="26"/>
       <c r="C18" s="242"/>
       <c r="D18" s="242"/>
       <c r="E18" s="243">
         <f>E17+C18-D18</f>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="2"/>
@@ -5632,13 +5644,13 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="402"/>
+      <c r="A19" s="406"/>
       <c r="B19" s="26"/>
       <c r="C19" s="242"/>
       <c r="D19" s="244"/>
       <c r="E19" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="2"/>
@@ -5646,13 +5658,13 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="402"/>
+      <c r="A20" s="406"/>
       <c r="B20" s="26"/>
       <c r="C20" s="242"/>
       <c r="D20" s="242"/>
       <c r="E20" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="2"/>
@@ -5660,13 +5672,13 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="402"/>
+      <c r="A21" s="406"/>
       <c r="B21" s="26"/>
       <c r="C21" s="242"/>
       <c r="D21" s="242"/>
       <c r="E21" s="243">
         <f>E20+C21-D21</f>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -5674,13 +5686,13 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="402"/>
+      <c r="A22" s="406"/>
       <c r="B22" s="26"/>
       <c r="C22" s="242"/>
       <c r="D22" s="242"/>
       <c r="E22" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -5688,13 +5700,13 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="402"/>
+      <c r="A23" s="406"/>
       <c r="B23" s="26"/>
       <c r="C23" s="242"/>
       <c r="D23" s="242"/>
       <c r="E23" s="243">
         <f>E22+C23-D23</f>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -5702,13 +5714,13 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="402"/>
+      <c r="A24" s="406"/>
       <c r="B24" s="26"/>
       <c r="C24" s="242"/>
       <c r="D24" s="242"/>
       <c r="E24" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -5716,13 +5728,13 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="402"/>
+      <c r="A25" s="406"/>
       <c r="B25" s="26"/>
       <c r="C25" s="242"/>
       <c r="D25" s="242"/>
       <c r="E25" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -5730,13 +5742,13 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="402"/>
+      <c r="A26" s="406"/>
       <c r="B26" s="26"/>
       <c r="C26" s="242"/>
       <c r="D26" s="242"/>
       <c r="E26" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -5744,13 +5756,13 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="402"/>
+      <c r="A27" s="406"/>
       <c r="B27" s="26"/>
       <c r="C27" s="242"/>
       <c r="D27" s="242"/>
       <c r="E27" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="287"/>
@@ -5758,13 +5770,13 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="402"/>
+      <c r="A28" s="406"/>
       <c r="B28" s="26"/>
       <c r="C28" s="242"/>
       <c r="D28" s="242"/>
       <c r="E28" s="243">
         <f>E27+C28-D28</f>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="21"/>
@@ -5772,13 +5784,13 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="402"/>
+      <c r="A29" s="406"/>
       <c r="B29" s="26"/>
       <c r="C29" s="242"/>
       <c r="D29" s="242"/>
       <c r="E29" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="287"/>
@@ -5786,13 +5798,13 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="402"/>
+      <c r="A30" s="406"/>
       <c r="B30" s="26"/>
       <c r="C30" s="242"/>
       <c r="D30" s="242"/>
       <c r="E30" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="21"/>
@@ -5800,13 +5812,13 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="402"/>
+      <c r="A31" s="406"/>
       <c r="B31" s="26"/>
       <c r="C31" s="242"/>
       <c r="D31" s="242"/>
       <c r="E31" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="21"/>
@@ -5814,13 +5826,13 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="402"/>
+      <c r="A32" s="406"/>
       <c r="B32" s="26"/>
       <c r="C32" s="242"/>
       <c r="D32" s="242"/>
       <c r="E32" s="243">
         <f>E31+C32-D32</f>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="21"/>
@@ -5828,13 +5840,13 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="402"/>
+      <c r="A33" s="406"/>
       <c r="B33" s="26"/>
       <c r="C33" s="242"/>
       <c r="D33" s="244"/>
       <c r="E33" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="21"/>
@@ -5842,13 +5854,13 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="402"/>
+      <c r="A34" s="406"/>
       <c r="B34" s="26"/>
       <c r="C34" s="242"/>
       <c r="D34" s="242"/>
       <c r="E34" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="21"/>
@@ -5856,13 +5868,13 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="402"/>
+      <c r="A35" s="406"/>
       <c r="B35" s="26"/>
       <c r="C35" s="242"/>
       <c r="D35" s="242"/>
       <c r="E35" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="21"/>
@@ -5870,13 +5882,13 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="402"/>
+      <c r="A36" s="406"/>
       <c r="B36" s="26"/>
       <c r="C36" s="242"/>
       <c r="D36" s="242"/>
       <c r="E36" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="21"/>
@@ -5884,13 +5896,13 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="402"/>
+      <c r="A37" s="406"/>
       <c r="B37" s="26"/>
       <c r="C37" s="242"/>
       <c r="D37" s="242"/>
       <c r="E37" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="21"/>
@@ -5898,13 +5910,13 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="402"/>
+      <c r="A38" s="406"/>
       <c r="B38" s="26"/>
       <c r="C38" s="242"/>
       <c r="D38" s="242"/>
       <c r="E38" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="21"/>
@@ -5912,13 +5924,13 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="402"/>
+      <c r="A39" s="406"/>
       <c r="B39" s="26"/>
       <c r="C39" s="242"/>
       <c r="D39" s="242"/>
       <c r="E39" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="21"/>
@@ -5926,13 +5938,13 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="402"/>
+      <c r="A40" s="406"/>
       <c r="B40" s="26"/>
       <c r="C40" s="242"/>
       <c r="D40" s="242"/>
       <c r="E40" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="21"/>
@@ -5940,13 +5952,13 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="402"/>
+      <c r="A41" s="406"/>
       <c r="B41" s="26"/>
       <c r="C41" s="242"/>
       <c r="D41" s="242"/>
       <c r="E41" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="21"/>
@@ -5954,13 +5966,13 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="402"/>
+      <c r="A42" s="406"/>
       <c r="B42" s="26"/>
       <c r="C42" s="242"/>
       <c r="D42" s="242"/>
       <c r="E42" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="21"/>
@@ -5968,13 +5980,13 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="402"/>
+      <c r="A43" s="406"/>
       <c r="B43" s="26"/>
       <c r="C43" s="242"/>
       <c r="D43" s="242"/>
       <c r="E43" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="21"/>
@@ -5982,13 +5994,13 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="402"/>
+      <c r="A44" s="406"/>
       <c r="B44" s="26"/>
       <c r="C44" s="242"/>
       <c r="D44" s="242"/>
       <c r="E44" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="21"/>
@@ -5996,13 +6008,13 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="402"/>
+      <c r="A45" s="406"/>
       <c r="B45" s="26"/>
       <c r="C45" s="242"/>
       <c r="D45" s="242"/>
       <c r="E45" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="21"/>
@@ -6010,13 +6022,13 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="402"/>
+      <c r="A46" s="406"/>
       <c r="B46" s="26"/>
       <c r="C46" s="242"/>
       <c r="D46" s="242"/>
       <c r="E46" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="21"/>
@@ -6024,13 +6036,13 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="402"/>
+      <c r="A47" s="406"/>
       <c r="B47" s="26"/>
       <c r="C47" s="242"/>
       <c r="D47" s="242"/>
       <c r="E47" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="21"/>
@@ -6038,13 +6050,13 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="402"/>
+      <c r="A48" s="406"/>
       <c r="B48" s="26"/>
       <c r="C48" s="242"/>
       <c r="D48" s="242"/>
       <c r="E48" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="21"/>
@@ -6052,13 +6064,13 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="402"/>
+      <c r="A49" s="406"/>
       <c r="B49" s="26"/>
       <c r="C49" s="242"/>
       <c r="D49" s="242"/>
       <c r="E49" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="21"/>
@@ -6066,13 +6078,13 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="402"/>
+      <c r="A50" s="406"/>
       <c r="B50" s="26"/>
       <c r="C50" s="242"/>
       <c r="D50" s="242"/>
       <c r="E50" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="21"/>
@@ -6080,13 +6092,13 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="402"/>
+      <c r="A51" s="406"/>
       <c r="B51" s="26"/>
       <c r="C51" s="242"/>
       <c r="D51" s="242"/>
       <c r="E51" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="21"/>
@@ -6094,13 +6106,13 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="402"/>
+      <c r="A52" s="406"/>
       <c r="B52" s="26"/>
       <c r="C52" s="242"/>
       <c r="D52" s="242"/>
       <c r="E52" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="21"/>
@@ -6108,13 +6120,13 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="402"/>
+      <c r="A53" s="406"/>
       <c r="B53" s="26"/>
       <c r="C53" s="242"/>
       <c r="D53" s="242"/>
       <c r="E53" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="21"/>
@@ -6122,13 +6134,13 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="402"/>
+      <c r="A54" s="406"/>
       <c r="B54" s="26"/>
       <c r="C54" s="242"/>
       <c r="D54" s="242"/>
       <c r="E54" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="21"/>
@@ -6136,13 +6148,13 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="402"/>
+      <c r="A55" s="406"/>
       <c r="B55" s="26"/>
       <c r="C55" s="242"/>
       <c r="D55" s="242"/>
       <c r="E55" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="21"/>
@@ -6150,13 +6162,13 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="402"/>
+      <c r="A56" s="406"/>
       <c r="B56" s="26"/>
       <c r="C56" s="242"/>
       <c r="D56" s="242"/>
       <c r="E56" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="21"/>
@@ -6164,309 +6176,309 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="402"/>
+      <c r="A57" s="406"/>
       <c r="B57" s="26"/>
       <c r="C57" s="242"/>
       <c r="D57" s="242"/>
       <c r="E57" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="402"/>
+      <c r="A58" s="406"/>
       <c r="B58" s="26"/>
       <c r="C58" s="242"/>
       <c r="D58" s="242"/>
       <c r="E58" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="402"/>
+      <c r="A59" s="406"/>
       <c r="B59" s="26"/>
       <c r="C59" s="242"/>
       <c r="D59" s="242"/>
       <c r="E59" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="402"/>
+      <c r="A60" s="406"/>
       <c r="B60" s="26"/>
       <c r="C60" s="242"/>
       <c r="D60" s="242"/>
       <c r="E60" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="402"/>
+      <c r="A61" s="406"/>
       <c r="B61" s="26"/>
       <c r="C61" s="242"/>
       <c r="D61" s="242"/>
       <c r="E61" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="402"/>
+      <c r="A62" s="406"/>
       <c r="B62" s="26"/>
       <c r="C62" s="242"/>
       <c r="D62" s="242"/>
       <c r="E62" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="402"/>
+      <c r="A63" s="406"/>
       <c r="B63" s="26"/>
       <c r="C63" s="242"/>
       <c r="D63" s="242"/>
       <c r="E63" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="402"/>
+      <c r="A64" s="406"/>
       <c r="B64" s="26"/>
       <c r="C64" s="242"/>
       <c r="D64" s="242"/>
       <c r="E64" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="402"/>
+      <c r="A65" s="406"/>
       <c r="B65" s="26"/>
       <c r="C65" s="242"/>
       <c r="D65" s="242"/>
       <c r="E65" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="402"/>
+      <c r="A66" s="406"/>
       <c r="B66" s="26"/>
       <c r="C66" s="242"/>
       <c r="D66" s="242"/>
       <c r="E66" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="402"/>
+      <c r="A67" s="406"/>
       <c r="B67" s="26"/>
       <c r="C67" s="242"/>
       <c r="D67" s="242"/>
       <c r="E67" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="402"/>
+      <c r="A68" s="406"/>
       <c r="B68" s="26"/>
       <c r="C68" s="242"/>
       <c r="D68" s="242"/>
       <c r="E68" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="402"/>
+      <c r="A69" s="406"/>
       <c r="B69" s="26"/>
       <c r="C69" s="242"/>
       <c r="D69" s="242"/>
       <c r="E69" s="243">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="402"/>
+      <c r="A70" s="406"/>
       <c r="B70" s="26"/>
       <c r="C70" s="242"/>
       <c r="D70" s="242"/>
       <c r="E70" s="243">
         <f t="shared" ref="E70:E82" si="1">E69+C70-D70</f>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="402"/>
+      <c r="A71" s="406"/>
       <c r="B71" s="26"/>
       <c r="C71" s="242"/>
       <c r="D71" s="242"/>
       <c r="E71" s="243">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="402"/>
+      <c r="A72" s="406"/>
       <c r="B72" s="26"/>
       <c r="C72" s="242"/>
       <c r="D72" s="242"/>
       <c r="E72" s="243">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="402"/>
+      <c r="A73" s="406"/>
       <c r="B73" s="26"/>
       <c r="C73" s="242"/>
       <c r="D73" s="242"/>
       <c r="E73" s="243">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="402"/>
+      <c r="A74" s="406"/>
       <c r="B74" s="26"/>
       <c r="C74" s="242"/>
       <c r="D74" s="242"/>
       <c r="E74" s="243">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="402"/>
+      <c r="A75" s="406"/>
       <c r="B75" s="26"/>
       <c r="C75" s="242"/>
       <c r="D75" s="242"/>
       <c r="E75" s="243">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="402"/>
+      <c r="A76" s="406"/>
       <c r="B76" s="26"/>
       <c r="C76" s="242"/>
       <c r="D76" s="242"/>
       <c r="E76" s="243">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="402"/>
+      <c r="A77" s="406"/>
       <c r="B77" s="26"/>
       <c r="C77" s="242"/>
       <c r="D77" s="242"/>
       <c r="E77" s="243">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="402"/>
+      <c r="A78" s="406"/>
       <c r="B78" s="26"/>
       <c r="C78" s="242"/>
       <c r="D78" s="242"/>
       <c r="E78" s="243">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="402"/>
+      <c r="A79" s="406"/>
       <c r="B79" s="26"/>
       <c r="C79" s="242"/>
       <c r="D79" s="242"/>
       <c r="E79" s="243">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F79" s="18"/>
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="402"/>
+      <c r="A80" s="406"/>
       <c r="B80" s="26"/>
       <c r="C80" s="242"/>
       <c r="D80" s="242"/>
       <c r="E80" s="243">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="402"/>
+      <c r="A81" s="406"/>
       <c r="B81" s="26"/>
       <c r="C81" s="242"/>
       <c r="D81" s="242"/>
       <c r="E81" s="243">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="402"/>
+      <c r="A82" s="406"/>
       <c r="B82" s="26"/>
       <c r="C82" s="242"/>
       <c r="D82" s="242"/>
       <c r="E82" s="243">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="402"/>
+      <c r="A83" s="406"/>
       <c r="B83" s="31"/>
       <c r="C83" s="243">
         <f>SUM(C5:C72)</f>
-        <v>90000</v>
+        <v>220000</v>
       </c>
       <c r="D83" s="243">
         <f>SUM(D5:D77)</f>
-        <v>0</v>
+        <v>220000</v>
       </c>
       <c r="E83" s="245">
         <f>E71</f>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F83" s="19"/>
       <c r="G83" s="2"/>
@@ -6510,67 +6522,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="407" t="s">
+      <c r="A1" s="411" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="407"/>
-      <c r="C1" s="407"/>
-      <c r="D1" s="407"/>
-      <c r="E1" s="407"/>
-      <c r="F1" s="407"/>
-      <c r="G1" s="407"/>
-      <c r="H1" s="407"/>
-      <c r="I1" s="407"/>
-      <c r="J1" s="407"/>
-      <c r="K1" s="407"/>
-      <c r="L1" s="407"/>
-      <c r="M1" s="407"/>
-      <c r="N1" s="407"/>
-      <c r="O1" s="407"/>
-      <c r="P1" s="407"/>
-      <c r="Q1" s="407"/>
+      <c r="B1" s="411"/>
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
+      <c r="N1" s="411"/>
+      <c r="O1" s="411"/>
+      <c r="P1" s="411"/>
+      <c r="Q1" s="411"/>
     </row>
     <row r="2" spans="1:24" s="62" customFormat="1" ht="18">
-      <c r="A2" s="408" t="s">
+      <c r="A2" s="412" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="408"/>
-      <c r="C2" s="408"/>
-      <c r="D2" s="408"/>
-      <c r="E2" s="408"/>
-      <c r="F2" s="408"/>
-      <c r="G2" s="408"/>
-      <c r="H2" s="408"/>
-      <c r="I2" s="408"/>
-      <c r="J2" s="408"/>
-      <c r="K2" s="408"/>
-      <c r="L2" s="408"/>
-      <c r="M2" s="408"/>
-      <c r="N2" s="408"/>
-      <c r="O2" s="408"/>
-      <c r="P2" s="408"/>
-      <c r="Q2" s="408"/>
+      <c r="B2" s="412"/>
+      <c r="C2" s="412"/>
+      <c r="D2" s="412"/>
+      <c r="E2" s="412"/>
+      <c r="F2" s="412"/>
+      <c r="G2" s="412"/>
+      <c r="H2" s="412"/>
+      <c r="I2" s="412"/>
+      <c r="J2" s="412"/>
+      <c r="K2" s="412"/>
+      <c r="L2" s="412"/>
+      <c r="M2" s="412"/>
+      <c r="N2" s="412"/>
+      <c r="O2" s="412"/>
+      <c r="P2" s="412"/>
+      <c r="Q2" s="412"/>
     </row>
     <row r="3" spans="1:24" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="409" t="s">
+      <c r="A3" s="413" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="410"/>
-      <c r="C3" s="410"/>
-      <c r="D3" s="410"/>
-      <c r="E3" s="410"/>
-      <c r="F3" s="410"/>
-      <c r="G3" s="410"/>
-      <c r="H3" s="410"/>
-      <c r="I3" s="410"/>
-      <c r="J3" s="410"/>
-      <c r="K3" s="410"/>
-      <c r="L3" s="410"/>
-      <c r="M3" s="410"/>
-      <c r="N3" s="410"/>
-      <c r="O3" s="410"/>
-      <c r="P3" s="410"/>
-      <c r="Q3" s="411"/>
+      <c r="B3" s="414"/>
+      <c r="C3" s="414"/>
+      <c r="D3" s="414"/>
+      <c r="E3" s="414"/>
+      <c r="F3" s="414"/>
+      <c r="G3" s="414"/>
+      <c r="H3" s="414"/>
+      <c r="I3" s="414"/>
+      <c r="J3" s="414"/>
+      <c r="K3" s="414"/>
+      <c r="L3" s="414"/>
+      <c r="M3" s="414"/>
+      <c r="N3" s="414"/>
+      <c r="O3" s="414"/>
+      <c r="P3" s="414"/>
+      <c r="Q3" s="415"/>
       <c r="S3" s="47"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6579,52 +6591,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="64" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="412" t="s">
+      <c r="A4" s="416" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="414" t="s">
+      <c r="B4" s="418" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="403" t="s">
+      <c r="C4" s="407" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="403" t="s">
+      <c r="D4" s="407" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="403" t="s">
+      <c r="E4" s="407" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="416" t="s">
+      <c r="F4" s="420" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="403" t="s">
+      <c r="G4" s="407" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="403" t="s">
+      <c r="H4" s="407" t="s">
         <v>247</v>
       </c>
-      <c r="I4" s="403" t="s">
+      <c r="I4" s="407" t="s">
         <v>224</v>
       </c>
-      <c r="J4" s="403" t="s">
+      <c r="J4" s="407" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="403" t="s">
+      <c r="K4" s="407" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="403" t="s">
+      <c r="L4" s="407" t="s">
         <v>255</v>
       </c>
-      <c r="M4" s="403" t="s">
+      <c r="M4" s="407" t="s">
         <v>253</v>
       </c>
-      <c r="N4" s="403" t="s">
+      <c r="N4" s="407" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="405" t="s">
+      <c r="O4" s="409" t="s">
         <v>313</v>
       </c>
-      <c r="P4" s="418" t="s">
+      <c r="P4" s="422" t="s">
         <v>134</v>
       </c>
       <c r="Q4" s="121" t="s">
@@ -6637,22 +6649,22 @@
       <c r="W4" s="66"/>
     </row>
     <row r="5" spans="1:24" s="64" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="413"/>
-      <c r="B5" s="415"/>
-      <c r="C5" s="404"/>
-      <c r="D5" s="404"/>
-      <c r="E5" s="404"/>
-      <c r="F5" s="417"/>
-      <c r="G5" s="404"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="404"/>
-      <c r="J5" s="404"/>
-      <c r="K5" s="404"/>
-      <c r="L5" s="404"/>
-      <c r="M5" s="404"/>
-      <c r="N5" s="404"/>
-      <c r="O5" s="406"/>
-      <c r="P5" s="419"/>
+      <c r="A5" s="417"/>
+      <c r="B5" s="419"/>
+      <c r="C5" s="408"/>
+      <c r="D5" s="408"/>
+      <c r="E5" s="408"/>
+      <c r="F5" s="421"/>
+      <c r="G5" s="408"/>
+      <c r="H5" s="408"/>
+      <c r="I5" s="408"/>
+      <c r="J5" s="408"/>
+      <c r="K5" s="408"/>
+      <c r="L5" s="408"/>
+      <c r="M5" s="408"/>
+      <c r="N5" s="408"/>
+      <c r="O5" s="410"/>
+      <c r="P5" s="423"/>
       <c r="Q5" s="122" t="s">
         <v>36</v>
       </c>
@@ -9558,11 +9570,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9577,6 +9584,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9588,8 +9600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9616,15 +9628,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="425" t="s">
+      <c r="A1" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="425"/>
-      <c r="C1" s="425"/>
-      <c r="D1" s="425"/>
-      <c r="E1" s="425"/>
-      <c r="F1" s="425"/>
-      <c r="G1" s="425"/>
+      <c r="B1" s="429"/>
+      <c r="C1" s="429"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
       <c r="H1" s="57"/>
       <c r="I1" s="138"/>
       <c r="J1" s="138"/>
@@ -9717,15 +9729,15 @@
       <c r="CS1" s="133"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="426" t="s">
+      <c r="A2" s="430" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="426"/>
-      <c r="C2" s="426"/>
-      <c r="D2" s="426"/>
-      <c r="E2" s="426"/>
-      <c r="F2" s="426"/>
-      <c r="G2" s="426"/>
+      <c r="B2" s="430"/>
+      <c r="C2" s="430"/>
+      <c r="D2" s="430"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="430"/>
+      <c r="G2" s="430"/>
       <c r="H2" s="57"/>
       <c r="I2" s="138"/>
       <c r="J2" s="138"/>
@@ -9818,15 +9830,15 @@
       <c r="CS2" s="133"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="427" t="s">
+      <c r="A3" s="431" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="427"/>
-      <c r="C3" s="427"/>
-      <c r="D3" s="427"/>
-      <c r="E3" s="427"/>
-      <c r="F3" s="427"/>
-      <c r="G3" s="427"/>
+      <c r="B3" s="431"/>
+      <c r="C3" s="431"/>
+      <c r="D3" s="431"/>
+      <c r="E3" s="431"/>
+      <c r="F3" s="431"/>
+      <c r="G3" s="431"/>
       <c r="H3" s="57"/>
       <c r="I3" s="138"/>
       <c r="J3" s="138"/>
@@ -10149,14 +10161,14 @@
         <v>634600</v>
       </c>
       <c r="C6" s="49">
-        <v>519270</v>
+        <v>523290</v>
       </c>
       <c r="D6" s="46">
         <v>580</v>
       </c>
       <c r="E6" s="46">
         <f t="shared" ref="E6:E32" si="0">C6+D6</f>
-        <v>519850</v>
+        <v>523870</v>
       </c>
       <c r="F6" s="259"/>
       <c r="G6" s="236"/>
@@ -12913,7 +12925,7 @@
       </c>
       <c r="C33" s="247">
         <f>SUM(C5:C32)</f>
-        <v>1031070</v>
+        <v>1035090</v>
       </c>
       <c r="D33" s="246">
         <f>SUM(D5:D32)</f>
@@ -12921,11 +12933,11 @@
       </c>
       <c r="E33" s="246">
         <f>SUM(E5:E32)</f>
-        <v>1032170</v>
+        <v>1036190</v>
       </c>
       <c r="F33" s="246">
         <f>B33-E33</f>
-        <v>-66550</v>
+        <v>-70570</v>
       </c>
       <c r="G33" s="248"/>
       <c r="H33" s="134"/>
@@ -13120,12 +13132,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="128"/>
-      <c r="B35" s="422" t="s">
+      <c r="B35" s="426" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="422"/>
-      <c r="D35" s="422"/>
-      <c r="E35" s="422"/>
+      <c r="C35" s="426"/>
+      <c r="D35" s="426"/>
+      <c r="E35" s="426"/>
       <c r="F35" s="129"/>
       <c r="G35" s="134"/>
       <c r="H35" s="134"/>
@@ -13451,10 +13463,10 @@
         <v>296</v>
       </c>
       <c r="D38" s="203">
-        <v>31020</v>
+        <v>27000</v>
       </c>
       <c r="E38" s="171" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="F38" s="127"/>
       <c r="G38" s="134"/>
@@ -13964,10 +13976,10 @@
       <c r="D43" s="203"/>
       <c r="E43" s="172"/>
       <c r="F43" s="129"/>
-      <c r="G43" s="423"/>
-      <c r="H43" s="423"/>
-      <c r="I43" s="423"/>
-      <c r="J43" s="423"/>
+      <c r="G43" s="427"/>
+      <c r="H43" s="427"/>
+      <c r="I43" s="427"/>
+      <c r="J43" s="427"/>
       <c r="K43" s="57"/>
       <c r="L43" s="138"/>
       <c r="M43" s="57"/>
@@ -15225,7 +15237,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="377" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C54" s="374"/>
       <c r="D54" s="375">
@@ -22193,14 +22205,14 @@
       <c r="CS118" s="133"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="420" t="s">
+      <c r="A119" s="424" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="421"/>
-      <c r="C119" s="424"/>
+      <c r="B119" s="425"/>
+      <c r="C119" s="428"/>
       <c r="D119" s="207">
         <f>SUM(D37:D118)</f>
-        <v>6955750</v>
+        <v>6951730</v>
       </c>
       <c r="E119" s="201"/>
       <c r="F119" s="133"/>
@@ -22402,14 +22414,14 @@
       <c r="CS120" s="133"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="420" t="s">
+      <c r="A121" s="424" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="421"/>
-      <c r="C121" s="421"/>
+      <c r="B121" s="425"/>
+      <c r="C121" s="425"/>
       <c r="D121" s="207">
         <f>D119+M121</f>
-        <v>6955750</v>
+        <v>6951730</v>
       </c>
       <c r="E121" s="201"/>
       <c r="F121" s="133"/>
@@ -33641,7 +33653,7 @@
   <dimension ref="A1:R222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33664,28 +33676,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="430" t="s">
+      <c r="A1" s="434" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="431"/>
-      <c r="C1" s="431"/>
-      <c r="D1" s="431"/>
-      <c r="E1" s="432"/>
+      <c r="B1" s="435"/>
+      <c r="C1" s="435"/>
+      <c r="D1" s="435"/>
+      <c r="E1" s="436"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="428"/>
-      <c r="J1" s="428"/>
-      <c r="K1" s="428"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="432"/>
+      <c r="K1" s="432"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="439" t="s">
+      <c r="A2" s="443" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="440"/>
-      <c r="C2" s="440"/>
-      <c r="D2" s="440"/>
-      <c r="E2" s="441"/>
+      <c r="B2" s="444"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="445"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -33706,13 +33718,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="433" t="s">
-        <v>327</v>
-      </c>
-      <c r="B3" s="434"/>
-      <c r="C3" s="434"/>
-      <c r="D3" s="434"/>
-      <c r="E3" s="435"/>
+      <c r="A3" s="437" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="438"/>
+      <c r="C3" s="438"/>
+      <c r="D3" s="438"/>
+      <c r="E3" s="439"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -33739,13 +33751,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="442" t="s">
+      <c r="A4" s="446" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="443"/>
-      <c r="C4" s="443"/>
-      <c r="D4" s="443"/>
-      <c r="E4" s="444"/>
+      <c r="B4" s="447"/>
+      <c r="C4" s="447"/>
+      <c r="D4" s="447"/>
+      <c r="E4" s="448"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -33822,7 +33834,7 @@
         <v>308</v>
       </c>
       <c r="E6" s="263">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="355" t="s">
@@ -33973,7 +33985,7 @@
         <v>312</v>
       </c>
       <c r="E10" s="322">
-        <v>188364</v>
+        <v>408364</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="231"/>
@@ -34057,11 +34069,11 @@
       <c r="F13" s="7"/>
       <c r="G13" s="231"/>
       <c r="H13" s="232"/>
-      <c r="I13" s="429" t="s">
+      <c r="I13" s="433" t="s">
         <v>207</v>
       </c>
-      <c r="J13" s="429"/>
-      <c r="K13" s="429"/>
+      <c r="J13" s="433"/>
+      <c r="K13" s="433"/>
       <c r="L13" s="387">
         <f>SUM(L3:L12)</f>
         <v>214920</v>
@@ -34086,11 +34098,11 @@
       <c r="F14" s="7"/>
       <c r="G14" s="297"/>
       <c r="H14" s="233"/>
-      <c r="I14" s="445" t="s">
+      <c r="I14" s="449" t="s">
         <v>225</v>
       </c>
-      <c r="J14" s="445"/>
-      <c r="K14" s="445"/>
+      <c r="J14" s="449"/>
+      <c r="K14" s="449"/>
       <c r="L14" s="31">
         <v>54000</v>
       </c>
@@ -34102,8 +34114,12 @@
       <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="21.75">
-      <c r="A15" s="264"/>
-      <c r="B15" s="239"/>
+      <c r="A15" s="391" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" s="392">
+        <v>130000</v>
+      </c>
       <c r="C15" s="39"/>
       <c r="D15" s="296" t="s">
         <v>320</v>
@@ -34114,11 +34130,11 @@
       <c r="F15" s="7"/>
       <c r="G15" s="298"/>
       <c r="H15" s="233"/>
-      <c r="I15" s="429" t="s">
+      <c r="I15" s="433" t="s">
         <v>226</v>
       </c>
-      <c r="J15" s="429"/>
-      <c r="K15" s="429"/>
+      <c r="J15" s="433"/>
+      <c r="K15" s="433"/>
       <c r="L15" s="387">
         <f>L13-L14</f>
         <v>160920</v>
@@ -34151,7 +34167,7 @@
       </c>
       <c r="B17" s="240">
         <f>B5+B6-B8-B9+B13+B14+B15</f>
-        <v>20022280</v>
+        <v>20152280</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39" t="s">
@@ -34159,7 +34175,7 @@
       </c>
       <c r="E17" s="266">
         <f>SUM(E5:E16)</f>
-        <v>20022280</v>
+        <v>20152280</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="109">
@@ -34191,13 +34207,13 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="436" t="s">
+      <c r="A19" s="440" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="437"/>
-      <c r="C19" s="437"/>
-      <c r="D19" s="437"/>
-      <c r="E19" s="438"/>
+      <c r="B19" s="441"/>
+      <c r="C19" s="441"/>
+      <c r="D19" s="441"/>
+      <c r="E19" s="442"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -34234,7 +34250,7 @@
     </row>
     <row r="21" spans="1:18" ht="21.75">
       <c r="A21" s="271" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B21" s="260">
         <v>39000</v>
@@ -34412,10 +34428,10 @@
       <c r="R28" s="7"/>
     </row>
     <row r="29" spans="1:18" s="358" customFormat="1" ht="21.75">
-      <c r="A29" s="474" t="s">
+      <c r="A29" s="400" t="s">
         <v>266</v>
       </c>
-      <c r="B29" s="476">
+      <c r="B29" s="402">
         <v>140000</v>
       </c>
       <c r="C29" s="279"/>
@@ -34535,10 +34551,10 @@
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="1:18" ht="22.5" thickBot="1">
-      <c r="A34" s="473" t="s">
+      <c r="A34" s="399" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="475">
+      <c r="B34" s="401">
         <v>361400</v>
       </c>
       <c r="C34" s="318"/>
@@ -37364,21 +37380,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A1" s="451"/>
-      <c r="B1" s="451"/>
-      <c r="C1" s="451"/>
-      <c r="D1" s="451"/>
-      <c r="E1" s="451"/>
-      <c r="F1" s="451"/>
-      <c r="G1" s="451"/>
-      <c r="H1" s="451"/>
-      <c r="I1" s="451"/>
+      <c r="A1" s="465"/>
+      <c r="B1" s="465"/>
+      <c r="C1" s="465"/>
+      <c r="D1" s="465"/>
+      <c r="E1" s="465"/>
+      <c r="F1" s="465"/>
+      <c r="G1" s="465"/>
+      <c r="H1" s="465"/>
+      <c r="I1" s="465"/>
     </row>
     <row r="2" spans="1:9" ht="24" thickBot="1">
-      <c r="A2" s="464" t="s">
+      <c r="A2" s="450" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="465"/>
+      <c r="B2" s="474"/>
       <c r="C2" s="294">
         <f>C83</f>
         <v>50500</v>
@@ -37391,10 +37407,10 @@
       <c r="I2" s="303"/>
     </row>
     <row r="3" spans="1:9" ht="24" thickBot="1">
-      <c r="A3" s="464" t="s">
+      <c r="A3" s="450" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="470"/>
+      <c r="B3" s="451"/>
       <c r="C3" s="294">
         <v>53000</v>
       </c>
@@ -37406,10 +37422,10 @@
       <c r="I3" s="303"/>
     </row>
     <row r="4" spans="1:9" ht="24" thickBot="1">
-      <c r="A4" s="464" t="s">
+      <c r="A4" s="450" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="470"/>
+      <c r="B4" s="451"/>
       <c r="C4" s="307">
         <f>C2-C3</f>
         <v>-2500</v>
@@ -37422,15 +37438,15 @@
       <c r="I4" s="303"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A5" s="451"/>
-      <c r="B5" s="451"/>
-      <c r="C5" s="451"/>
-      <c r="D5" s="451"/>
-      <c r="E5" s="451"/>
-      <c r="F5" s="451"/>
-      <c r="G5" s="451"/>
-      <c r="H5" s="451"/>
-      <c r="I5" s="451"/>
+      <c r="A5" s="465"/>
+      <c r="B5" s="465"/>
+      <c r="C5" s="465"/>
+      <c r="D5" s="465"/>
+      <c r="E5" s="465"/>
+      <c r="F5" s="465"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
+      <c r="I5" s="465"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="255" t="s">
@@ -37470,13 +37486,13 @@
       </c>
       <c r="D7" s="284"/>
       <c r="E7" s="282"/>
-      <c r="G7" s="454">
+      <c r="G7" s="452">
         <v>44684</v>
       </c>
       <c r="H7" s="289" t="s">
         <v>171</v>
       </c>
-      <c r="I7" s="457">
+      <c r="I7" s="454">
         <v>15000</v>
       </c>
     </row>
@@ -37492,11 +37508,11 @@
       </c>
       <c r="D8" s="284"/>
       <c r="E8" s="282"/>
-      <c r="G8" s="454"/>
+      <c r="G8" s="452"/>
       <c r="H8" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="I8" s="457"/>
+      <c r="I8" s="454"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1">
       <c r="A9" s="276" t="s">
@@ -37510,11 +37526,11 @@
       </c>
       <c r="D9" s="284"/>
       <c r="E9" s="282"/>
-      <c r="G9" s="455"/>
+      <c r="G9" s="453"/>
       <c r="H9" s="290" t="s">
         <v>173</v>
       </c>
-      <c r="I9" s="458"/>
+      <c r="I9" s="455"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1">
       <c r="A10" s="276" t="s">
@@ -37526,13 +37542,13 @@
       </c>
       <c r="D10" s="284"/>
       <c r="E10" s="282"/>
-      <c r="G10" s="454">
+      <c r="G10" s="452">
         <v>44684</v>
       </c>
       <c r="H10" s="289" t="s">
         <v>174</v>
       </c>
-      <c r="I10" s="457">
+      <c r="I10" s="454">
         <v>5500</v>
       </c>
     </row>
@@ -37546,11 +37562,11 @@
       </c>
       <c r="D11" s="284"/>
       <c r="E11" s="282"/>
-      <c r="G11" s="454"/>
+      <c r="G11" s="452"/>
       <c r="H11" s="289" t="s">
         <v>175</v>
       </c>
-      <c r="I11" s="457"/>
+      <c r="I11" s="454"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A12" s="276" t="s">
@@ -37562,11 +37578,11 @@
       </c>
       <c r="D12" s="284"/>
       <c r="E12" s="282"/>
-      <c r="G12" s="455"/>
+      <c r="G12" s="453"/>
       <c r="H12" s="290" t="s">
         <v>173</v>
       </c>
-      <c r="I12" s="458"/>
+      <c r="I12" s="455"/>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="276"/>
@@ -37574,13 +37590,13 @@
       <c r="C13" s="276"/>
       <c r="D13" s="284"/>
       <c r="E13" s="282"/>
-      <c r="G13" s="454">
+      <c r="G13" s="452">
         <v>44684</v>
       </c>
       <c r="H13" s="289" t="s">
         <v>176</v>
       </c>
-      <c r="I13" s="457">
+      <c r="I13" s="454">
         <v>5000</v>
       </c>
     </row>
@@ -37590,11 +37606,11 @@
       <c r="C14" s="254"/>
       <c r="D14" s="284"/>
       <c r="E14" s="282"/>
-      <c r="G14" s="454"/>
+      <c r="G14" s="452"/>
       <c r="H14" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="I14" s="457"/>
+      <c r="I14" s="454"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1">
       <c r="A15" s="276"/>
@@ -37602,11 +37618,11 @@
       <c r="C15" s="276"/>
       <c r="D15" s="284"/>
       <c r="E15" s="282"/>
-      <c r="G15" s="455"/>
+      <c r="G15" s="453"/>
       <c r="H15" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="I15" s="458"/>
+      <c r="I15" s="455"/>
     </row>
     <row r="16" spans="1:9" ht="14.25">
       <c r="A16" s="254" t="s">
@@ -37620,13 +37636,13 @@
       </c>
       <c r="D16" s="284"/>
       <c r="E16" s="282"/>
-      <c r="G16" s="454">
+      <c r="G16" s="452">
         <v>44684</v>
       </c>
       <c r="H16" s="289" t="s">
         <v>177</v>
       </c>
-      <c r="I16" s="457">
+      <c r="I16" s="454">
         <v>3000</v>
       </c>
     </row>
@@ -37642,11 +37658,11 @@
       </c>
       <c r="D17" s="284"/>
       <c r="E17" s="282"/>
-      <c r="G17" s="454"/>
+      <c r="G17" s="452"/>
       <c r="H17" s="289" t="s">
         <v>178</v>
       </c>
-      <c r="I17" s="457"/>
+      <c r="I17" s="454"/>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1">
       <c r="A18" s="254" t="s">
@@ -37660,11 +37676,11 @@
       </c>
       <c r="D18" s="284"/>
       <c r="E18" s="282"/>
-      <c r="G18" s="455"/>
+      <c r="G18" s="453"/>
       <c r="H18" s="290" t="s">
         <v>179</v>
       </c>
-      <c r="I18" s="457"/>
+      <c r="I18" s="454"/>
     </row>
     <row r="19" spans="1:9" ht="14.25">
       <c r="A19" s="254" t="s">
@@ -37678,13 +37694,13 @@
       </c>
       <c r="D19" s="284"/>
       <c r="E19" s="282"/>
-      <c r="G19" s="454" t="s">
+      <c r="G19" s="452" t="s">
         <v>185</v>
       </c>
       <c r="H19" s="289" t="s">
         <v>177</v>
       </c>
-      <c r="I19" s="456">
+      <c r="I19" s="468">
         <v>18000</v>
       </c>
     </row>
@@ -37700,11 +37716,11 @@
       </c>
       <c r="D20" s="284"/>
       <c r="E20" s="282"/>
-      <c r="G20" s="454"/>
+      <c r="G20" s="452"/>
       <c r="H20" s="289" t="s">
         <v>183</v>
       </c>
-      <c r="I20" s="457"/>
+      <c r="I20" s="454"/>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="254" t="s">
@@ -37718,11 +37734,11 @@
       </c>
       <c r="D21" s="284"/>
       <c r="E21" s="282"/>
-      <c r="G21" s="455"/>
+      <c r="G21" s="453"/>
       <c r="H21" s="290" t="s">
         <v>184</v>
       </c>
-      <c r="I21" s="458"/>
+      <c r="I21" s="455"/>
     </row>
     <row r="22" spans="1:9" ht="14.25">
       <c r="A22" s="254" t="s">
@@ -37736,13 +37752,13 @@
       </c>
       <c r="D22" s="284"/>
       <c r="E22" s="282"/>
-      <c r="G22" s="454" t="s">
+      <c r="G22" s="452" t="s">
         <v>185</v>
       </c>
       <c r="H22" s="289" t="s">
         <v>177</v>
       </c>
-      <c r="I22" s="457">
+      <c r="I22" s="454">
         <v>7500</v>
       </c>
     </row>
@@ -37758,11 +37774,11 @@
       </c>
       <c r="D23" s="284"/>
       <c r="E23" s="282"/>
-      <c r="G23" s="454"/>
+      <c r="G23" s="452"/>
       <c r="H23" s="289" t="s">
         <v>186</v>
       </c>
-      <c r="I23" s="457"/>
+      <c r="I23" s="454"/>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1">
       <c r="A24" s="254" t="s">
@@ -37776,11 +37792,11 @@
       </c>
       <c r="D24" s="284"/>
       <c r="E24" s="282"/>
-      <c r="G24" s="455"/>
+      <c r="G24" s="453"/>
       <c r="H24" s="290" t="s">
         <v>184</v>
       </c>
-      <c r="I24" s="458"/>
+      <c r="I24" s="455"/>
     </row>
     <row r="25" spans="1:9" ht="14.25">
       <c r="A25" s="254" t="s">
@@ -37794,13 +37810,13 @@
       </c>
       <c r="D25" s="284"/>
       <c r="E25" s="282"/>
-      <c r="G25" s="454" t="s">
+      <c r="G25" s="452" t="s">
         <v>185</v>
       </c>
       <c r="H25" s="289" t="s">
         <v>187</v>
       </c>
-      <c r="I25" s="457">
+      <c r="I25" s="454">
         <v>1000</v>
       </c>
     </row>
@@ -37816,11 +37832,11 @@
       </c>
       <c r="D26" s="284"/>
       <c r="E26" s="282"/>
-      <c r="G26" s="454"/>
+      <c r="G26" s="452"/>
       <c r="H26" s="289" t="s">
         <v>188</v>
       </c>
-      <c r="I26" s="457"/>
+      <c r="I26" s="454"/>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="254" t="s">
@@ -37834,11 +37850,11 @@
       </c>
       <c r="D27" s="284"/>
       <c r="E27" s="282"/>
-      <c r="G27" s="455"/>
+      <c r="G27" s="453"/>
       <c r="H27" s="290" t="s">
         <v>189</v>
       </c>
-      <c r="I27" s="458"/>
+      <c r="I27" s="455"/>
     </row>
     <row r="28" spans="1:9" ht="14.25">
       <c r="A28" s="254" t="s">
@@ -37852,13 +37868,13 @@
       </c>
       <c r="D28" s="284"/>
       <c r="E28" s="282"/>
-      <c r="G28" s="459" t="s">
+      <c r="G28" s="469" t="s">
         <v>185</v>
       </c>
       <c r="H28" s="292" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="461">
+      <c r="I28" s="471">
         <v>-2000</v>
       </c>
     </row>
@@ -37878,11 +37894,11 @@
       <c r="E29" s="282">
         <v>357484290824718</v>
       </c>
-      <c r="G29" s="459"/>
+      <c r="G29" s="469"/>
       <c r="H29" s="292" t="s">
         <v>190</v>
       </c>
-      <c r="I29" s="462"/>
+      <c r="I29" s="472"/>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1">
       <c r="A30" s="254" t="s">
@@ -37898,11 +37914,11 @@
         <v>149</v>
       </c>
       <c r="E30" s="282"/>
-      <c r="G30" s="460"/>
+      <c r="G30" s="470"/>
       <c r="H30" s="293" t="s">
         <v>191</v>
       </c>
-      <c r="I30" s="463"/>
+      <c r="I30" s="473"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1">
       <c r="A31" s="254" t="s">
@@ -37918,10 +37934,10 @@
         <v>151</v>
       </c>
       <c r="E31" s="282"/>
-      <c r="G31" s="452" t="s">
+      <c r="G31" s="466" t="s">
         <v>182</v>
       </c>
-      <c r="H31" s="453"/>
+      <c r="H31" s="467"/>
       <c r="I31" s="304">
         <f>SUM(I7:I30)</f>
         <v>53000</v>
@@ -37941,10 +37957,10 @@
         <v>158</v>
       </c>
       <c r="E32" s="282"/>
-      <c r="G32" s="468" t="s">
+      <c r="G32" s="463" t="s">
         <v>208</v>
       </c>
-      <c r="H32" s="469"/>
+      <c r="H32" s="464"/>
       <c r="I32" s="305">
         <f>I52</f>
         <v>37500</v>
@@ -37966,10 +37982,10 @@
       <c r="E33" s="282">
         <v>354551892947593</v>
       </c>
-      <c r="G33" s="466" t="s">
+      <c r="G33" s="461" t="s">
         <v>209</v>
       </c>
-      <c r="H33" s="467"/>
+      <c r="H33" s="462"/>
       <c r="I33" s="306">
         <f>I31-I32</f>
         <v>15500</v>
@@ -38017,16 +38033,16 @@
       <c r="E36" s="282">
         <v>357484290920474</v>
       </c>
-      <c r="G36" s="446" t="s">
+      <c r="G36" s="458" t="s">
         <v>230</v>
       </c>
-      <c r="H36" s="447"/>
-      <c r="I36" s="448"/>
-      <c r="K36" s="446" t="s">
+      <c r="H36" s="459"/>
+      <c r="I36" s="460"/>
+      <c r="K36" s="458" t="s">
         <v>235</v>
       </c>
-      <c r="L36" s="447"/>
-      <c r="M36" s="448"/>
+      <c r="L36" s="459"/>
+      <c r="M36" s="460"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="254" t="s">
@@ -38401,18 +38417,18 @@
       <c r="C52" s="254"/>
       <c r="D52" s="284"/>
       <c r="E52" s="282"/>
-      <c r="G52" s="449" t="s">
+      <c r="G52" s="456" t="s">
         <v>87</v>
       </c>
-      <c r="H52" s="450"/>
+      <c r="H52" s="457"/>
       <c r="I52" s="312">
         <f>SUM(I38:I51)</f>
         <v>37500</v>
       </c>
-      <c r="K52" s="449" t="s">
+      <c r="K52" s="456" t="s">
         <v>87</v>
       </c>
-      <c r="L52" s="450"/>
+      <c r="L52" s="457"/>
       <c r="M52" s="312">
         <f>SUM(M38:M51)</f>
         <v>31725</v>
@@ -38643,18 +38659,6 @@
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G32:H32"/>
     <mergeCell ref="K36:M36"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="A1:I1"/>
@@ -38671,6 +38675,18 @@
     <mergeCell ref="I28:I30"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="I13:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38697,10 +38713,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" thickBot="1">
-      <c r="A1" s="464" t="s">
+      <c r="A1" s="450" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="465"/>
+      <c r="B1" s="474"/>
       <c r="C1" s="294">
         <f>C80+H6</f>
         <v>102690</v>
@@ -40251,10 +40267,10 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="471" t="s">
+      <c r="A80" s="475" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="472"/>
+      <c r="B80" s="476"/>
       <c r="C80" s="347">
         <f>SUM(C4:C79)</f>
         <v>83350</v>
